--- a/data/trans_camb/P2A_enfcro_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_enfcro_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 13,49</t>
+          <t>5,86; 13,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 8,37</t>
+          <t>-0,34; 8,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,75; 30,84</t>
+          <t>23,18; 30,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,11; 10,77</t>
+          <t>4,98; 10,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 8,79</t>
+          <t>3,05; 9,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,08; 19,24</t>
+          <t>14,3; 19,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,35; 11,25</t>
+          <t>6,44; 11,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 7,98</t>
+          <t>2,69; 7,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,25; 23,49</t>
+          <t>19,35; 23,62</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,72; 20,72</t>
+          <t>8,48; 21,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 12,77</t>
+          <t>-0,47; 13,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,38; 48,11</t>
+          <t>33,7; 47,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,33; 14,0</t>
+          <t>6,2; 13,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 11,34</t>
+          <t>3,78; 11,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,51; 24,92</t>
+          <t>17,78; 25,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,52; 15,58</t>
+          <t>8,62; 15,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,6; 10,93</t>
+          <t>3,59; 11,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,64; 32,77</t>
+          <t>25,67; 32,88</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 12,27</t>
+          <t>5,68; 12,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,36; 12,76</t>
+          <t>6,35; 13,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,72; 61,84</t>
+          <t>56,63; 61,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 11,45</t>
+          <t>4,38; 11,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,85</t>
+          <t>1,0; 7,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41,3; 47,17</t>
+          <t>40,86; 46,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,7; 10,67</t>
+          <t>5,9; 10,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 9,16</t>
+          <t>4,51; 9,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>49,83; 53,95</t>
+          <t>49,83; 53,73</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,09; 34,23</t>
+          <t>14,58; 35,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,12; 36,2</t>
+          <t>15,86; 36,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>142,44; 175,88</t>
+          <t>142,67; 175,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,18; 23,4</t>
+          <t>8,25; 22,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,48; 15,89</t>
+          <t>1,98; 15,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>77,51; 96,59</t>
+          <t>76,71; 96,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,52; 25,01</t>
+          <t>12,99; 25,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,42; 21,48</t>
+          <t>9,89; 21,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>108,97; 127,4</t>
+          <t>108,48; 125,82</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,13; 15,18</t>
+          <t>3,01; 15,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 7,01</t>
+          <t>-4,99; 7,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>55,97; 64,63</t>
+          <t>55,86; 65,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 8,5</t>
+          <t>-5,15; 8,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 1,95</t>
+          <t>-10,87; 1,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,53; 51,48</t>
+          <t>42,35; 51,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 10,14</t>
+          <t>1,32; 10,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 3,35</t>
+          <t>-5,54; 3,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>50,57; 57,4</t>
+          <t>50,77; 57,23</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,27; 42,02</t>
+          <t>7,34; 44,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 19,68</t>
+          <t>-11,77; 20,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>131,24; 186,76</t>
+          <t>130,18; 192,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 17,54</t>
+          <t>-9,33; 18,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,17; 4,11</t>
+          <t>-19,71; 3,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>73,39; 109,31</t>
+          <t>76,0; 111,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,67; 24,1</t>
+          <t>2,78; 25,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 7,78</t>
+          <t>-11,83; 8,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>105,63; 139,43</t>
+          <t>106,37; 138,06</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,91; 10,78</t>
+          <t>5,63; 10,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,63; 6,46</t>
+          <t>1,83; 6,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>47,79; 51,58</t>
+          <t>47,82; 51,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,43; 9,02</t>
+          <t>4,24; 9,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 2,76</t>
+          <t>-1,9; 2,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>31,94; 35,84</t>
+          <t>31,83; 35,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,96; 9,27</t>
+          <t>5,85; 9,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,04</t>
+          <t>0,63; 4,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>40,24; 43,01</t>
+          <t>40,28; 43,12</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,27; 23,34</t>
+          <t>11,81; 23,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,54; 14,07</t>
+          <t>3,82; 14,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>97,91; 113,48</t>
+          <t>97,9; 113,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,98; 14,81</t>
+          <t>6,78; 15,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 4,53</t>
+          <t>-3,0; 4,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>50,1; 59,13</t>
+          <t>50,25; 59,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,76; 17,31</t>
+          <t>10,49; 17,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,97; 7,48</t>
+          <t>1,16; 7,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>71,95; 80,24</t>
+          <t>72,27; 80,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_enfcro_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_enfcro_R-Estudios-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,68</t>
+          <t>12,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>27,27</t>
+          <t>-9,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>9,75</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,82</t>
+          <t>-12,07</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,93</t>
+          <t>11,22</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,23</t>
+          <t>7,57</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,48</t>
+          <t>-10,38</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,86; 13,86</t>
+          <t>8,8; 16,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 8,63</t>
+          <t>1,99; 11,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,18; 30,4</t>
+          <t>-14,34; -3,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,98; 10,76</t>
+          <t>6,77; 12,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 9,27</t>
+          <t>5,02; 11,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,3; 19,35</t>
+          <t>-15,61; -8,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,44; 11,46</t>
+          <t>8,79; 13,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 7,99</t>
+          <t>4,72; 10,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,35; 23,62</t>
+          <t>-13,15; -7,26</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>40,6%</t>
+          <t>-14,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>-15,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>-14,8%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,48; 21,58</t>
+          <t>13,53; 28,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 13,41</t>
+          <t>3,21; 18,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,7; 47,22</t>
+          <t>-22,37; -6,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,2; 13,91</t>
+          <t>8,75; 17,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,78; 11,91</t>
+          <t>6,49; 15,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,78; 25,18</t>
+          <t>-20,31; -11,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,62; 15,93</t>
+          <t>12,24; 20,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,59; 11,07</t>
+          <t>6,75; 15,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,67; 32,88</t>
+          <t>-18,38; -10,57</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,01</t>
+          <t>9,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,36</t>
+          <t>10,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>59,11</t>
+          <t>-7,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>44,17</t>
+          <t>-11,24</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,99</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>51,85</t>
+          <t>-9,05</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 12,43</t>
+          <t>6,51; 13,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 13,06</t>
+          <t>6,95; 13,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,63; 61,76</t>
+          <t>-15,66; -2,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,38; 11,3</t>
+          <t>3,8; 10,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 7,56</t>
+          <t>0,17; 6,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>40,86; 46,94</t>
+          <t>-18,68; 9,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,9; 10,67</t>
+          <t>5,95; 10,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,51; 9,39</t>
+          <t>4,61; 9,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>49,83; 53,73</t>
+          <t>-14,62; -0,57</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>28,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>157,42%</t>
+          <t>-20,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>86,44%</t>
+          <t>-22,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>117,55%</t>
+          <t>-21,17%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,58; 35,38</t>
+          <t>17,57; 39,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,86; 36,38</t>
+          <t>19,06; 41,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>142,67; 175,57</t>
+          <t>-42,33; -6,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,25; 22,83</t>
+          <t>7,23; 21,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 15,43</t>
+          <t>0,33; 14,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>76,71; 96,23</t>
+          <t>-36,74; 18,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,99; 25,02</t>
+          <t>13,73; 26,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,89; 21,89</t>
+          <t>10,41; 22,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>108,48; 125,82</t>
+          <t>-33,76; -1,33</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,68</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>60,45</t>
+          <t>-9,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>46,65</t>
+          <t>-20,01</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>54,02</t>
+          <t>-14,2</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 15,52</t>
+          <t>2,35; 14,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 7,14</t>
+          <t>-4,57; 7,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>55,86; 65,24</t>
+          <t>-14,52; -2,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 8,92</t>
+          <t>-4,95; 8,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 1,79</t>
+          <t>-10,09; 2,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>42,35; 51,84</t>
+          <t>-25,68; -14,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 10,83</t>
+          <t>0,71; 10,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 3,3</t>
+          <t>-4,91; 3,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>50,77; 57,23</t>
+          <t>-18,21; -10,32</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>157,42%</t>
+          <t>-24,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-8,51%</t>
+          <t>-6,72%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,5%</t>
+          <t>-39,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-2,37%</t>
+          <t>-1,12%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>121,41%</t>
+          <t>-32,75%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,34; 44,77</t>
+          <t>5,8; 43,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 20,28</t>
+          <t>-11,34; 21,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>130,18; 192,85</t>
+          <t>-36,29; -8,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 18,38</t>
+          <t>-9,19; 19,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 3,82</t>
+          <t>-18,58; 5,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>76,0; 111,43</t>
+          <t>-48,26; -32,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,78; 25,62</t>
+          <t>1,58; 24,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 8,08</t>
+          <t>-10,8; 9,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>106,37; 138,06</t>
+          <t>-39,7; -25,19</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,25</t>
+          <t>9,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>49,72</t>
+          <t>-12,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>33,92</t>
+          <t>-17,64</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>8,34</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>41,68</t>
+          <t>-14,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,63; 10,63</t>
+          <t>6,95; 11,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,83; 6,63</t>
+          <t>2,81; 7,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>47,82; 51,54</t>
+          <t>-18,96; -9,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,24; 9,13</t>
+          <t>4,67; 9,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 2,85</t>
+          <t>-1,2; 3,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>31,83; 35,73</t>
+          <t>-22,2; -4,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,85; 9,23</t>
+          <t>6,63; 10,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,63; 4,04</t>
+          <t>1,61; 4,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>40,28; 43,12</t>
+          <t>-18,69; -9,43</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>105,73%</t>
+          <t>-27,91%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>54,7%</t>
+          <t>-29,21%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>76,29%</t>
+          <t>-28,54%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,81; 23,27</t>
+          <t>15,21; 27,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,82; 14,59</t>
+          <t>6,26; 17,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>97,9; 113,52</t>
+          <t>-42,87; -20,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,78; 15,09</t>
+          <t>7,64; 16,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 4,67</t>
+          <t>-1,96; 5,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>50,25; 59,08</t>
+          <t>-36,42; -7,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,49; 17,19</t>
+          <t>12,44; 19,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,16; 7,53</t>
+          <t>2,94; 9,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>72,27; 80,65</t>
+          <t>-35,43; -18,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_enfcro_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_enfcro_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,8; 16,88</t>
+          <t>8,17; 16,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 11,33</t>
+          <t>2,23; 11,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,34; -3,91</t>
+          <t>-14,0; -3,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,77; 12,9</t>
+          <t>6,86; 12,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,02; 11,55</t>
+          <t>4,66; 11,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,61; -8,67</t>
+          <t>-15,56; -8,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,79; 13,95</t>
+          <t>8,76; 13,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,72; 10,36</t>
+          <t>4,85; 10,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,15; -7,26</t>
+          <t>-13,26; -7,28</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,53; 28,09</t>
+          <t>12,83; 27,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 18,88</t>
+          <t>3,34; 18,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,37; -6,46</t>
+          <t>-21,83; -6,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,75; 17,6</t>
+          <t>8,84; 17,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,49; 15,42</t>
+          <t>5,98; 15,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,31; -11,66</t>
+          <t>-20,09; -11,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,24; 20,37</t>
+          <t>12,2; 19,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,75; 15,11</t>
+          <t>6,75; 14,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,38; -10,57</t>
+          <t>-18,67; -10,49</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 13,31</t>
+          <t>6,67; 12,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,95; 13,65</t>
+          <t>6,89; 13,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,66; -2,26</t>
+          <t>-16,06; -2,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 10,73</t>
+          <t>3,7; 10,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 6,9</t>
+          <t>-0,12; 6,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 9,45</t>
+          <t>-18,63; 5,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,95; 10,76</t>
+          <t>6,0; 10,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 9,25</t>
+          <t>4,73; 9,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,62; -0,57</t>
+          <t>-14,23; 0,84</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,57; 39,99</t>
+          <t>17,89; 38,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,06; 41,67</t>
+          <t>18,55; 39,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,33; -6,83</t>
+          <t>-44,56; -7,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 21,92</t>
+          <t>7,15; 21,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 14,0</t>
+          <t>-0,37; 13,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,74; 18,95</t>
+          <t>-36,46; 10,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,73; 26,06</t>
+          <t>13,5; 24,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,41; 22,12</t>
+          <t>10,72; 22,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-33,76; -1,33</t>
+          <t>-32,66; 2,04</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 14,84</t>
+          <t>1,6; 14,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 7,45</t>
+          <t>-4,48; 8,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,52; -2,78</t>
+          <t>-14,8; -3,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 8,96</t>
+          <t>-4,59; 9,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 2,79</t>
+          <t>-9,76; 2,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,68; -14,93</t>
+          <t>-26,13; -14,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 10,3</t>
+          <t>0,54; 9,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 3,83</t>
+          <t>-4,84; 4,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-18,21; -10,32</t>
+          <t>-17,92; -9,76</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,8; 43,85</t>
+          <t>3,98; 42,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 21,88</t>
+          <t>-11,0; 24,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,29; -8,33</t>
+          <t>-36,89; -10,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 19,2</t>
+          <t>-8,56; 19,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 5,89</t>
+          <t>-18,5; 5,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,26; -32,07</t>
+          <t>-48,51; -30,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,58; 24,95</t>
+          <t>1,21; 24,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 9,22</t>
+          <t>-10,55; 9,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-39,7; -25,19</t>
+          <t>-39,59; -24,14</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,95; 11,95</t>
+          <t>6,83; 11,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,81; 7,62</t>
+          <t>2,83; 7,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,96; -9,0</t>
+          <t>-19,62; -8,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,67; 9,48</t>
+          <t>5,01; 9,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 3,47</t>
+          <t>-1,38; 3,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,2; -4,74</t>
+          <t>-22,13; -6,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,63; 10,1</t>
+          <t>6,57; 10,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,96</t>
+          <t>1,4; 5,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-18,69; -9,43</t>
+          <t>-18,85; -9,34</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,21; 27,86</t>
+          <t>14,84; 27,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,26; 17,72</t>
+          <t>6,24; 18,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,87; -20,86</t>
+          <t>-44,15; -20,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,64; 16,14</t>
+          <t>8,25; 16,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 5,83</t>
+          <t>-2,24; 5,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,42; -7,64</t>
+          <t>-36,4; -10,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,44; 19,51</t>
+          <t>12,31; 19,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,94; 9,6</t>
+          <t>2,63; 9,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-35,43; -18,01</t>
+          <t>-35,86; -18,12</t>
         </is>
       </c>
     </row>
